--- a/Lexicon.xlsx
+++ b/Lexicon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unmsm\Thesis_project_QuispeCabello_Sanchez_Wong\demo_lexicon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jat\Desktop\unmsm\Thesis_project_QuispeCabello_Sanchez_Wong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B181871-7EA8-4B88-9DBC-0F5FE808D3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A16341-23E5-4237-977A-227219CEDBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{9B249666-9A8A-4383-8168-2FD58BE5AA28}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{9B249666-9A8A-4383-8168-2FD58BE5AA28}"/>
   </bookViews>
   <sheets>
     <sheet name="lexiconv1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="lexicon_master" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lexiconv2_lematizado!$A$1:$K$895</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lexiconv2_lematizado!$A$1:$K$1137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="1413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="1696">
   <si>
     <t>Text</t>
   </si>
@@ -4278,6 +4278,855 @@
   </si>
   <si>
     <t>ya pues</t>
+  </si>
+  <si>
+    <t>ni auto tener</t>
+  </si>
+  <si>
+    <t>desgraciar</t>
+  </si>
+  <si>
+    <t>no oriente</t>
+  </si>
+  <si>
+    <t>auxilio</t>
+  </si>
+  <si>
+    <t>mal servicio</t>
+  </si>
+  <si>
+    <t>abstener</t>
+  </si>
+  <si>
+    <t>reclamación</t>
+  </si>
+  <si>
+    <t>reclamacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negar </t>
+  </si>
+  <si>
+    <t>cada dos hora</t>
+  </si>
+  <si>
+    <t>cada hora</t>
+  </si>
+  <si>
+    <t>hacer nada</t>
+  </si>
+  <si>
+    <t>tiempo unico</t>
+  </si>
+  <si>
+    <t>ahora resultar</t>
+  </si>
+  <si>
+    <t>ahora acontecer</t>
+  </si>
+  <si>
+    <t>erronea</t>
+  </si>
+  <si>
+    <t>dano</t>
+  </si>
+  <si>
+    <t>caluroso</t>
+  </si>
+  <si>
+    <t>pequén</t>
+  </si>
+  <si>
+    <t>pequen</t>
+  </si>
+  <si>
+    <t>largo tiempo</t>
+  </si>
+  <si>
+    <t>pepe pillo</t>
+  </si>
+  <si>
+    <t>jugar</t>
+  </si>
+  <si>
+    <t>mil traba</t>
+  </si>
+  <si>
+    <t>abstención</t>
+  </si>
+  <si>
+    <t>abstencion</t>
+  </si>
+  <si>
+    <t>culpa</t>
+  </si>
+  <si>
+    <t>raro</t>
+  </si>
+  <si>
+    <t>no sonar</t>
+  </si>
+  <si>
+    <t>cero sol</t>
+  </si>
+  <si>
+    <t>adefesio</t>
+  </si>
+  <si>
+    <t>no dar mas comer</t>
+  </si>
+  <si>
+    <t>ladrón</t>
+  </si>
+  <si>
+    <t>ladron</t>
+  </si>
+  <si>
+    <t>clonacion</t>
+  </si>
+  <si>
+    <t>no dar cara</t>
+  </si>
+  <si>
+    <t>defensor</t>
+  </si>
+  <si>
+    <t>no pasar nada</t>
+  </si>
+  <si>
+    <t>esperar tres hora</t>
+  </si>
+  <si>
+    <t>esperar cuatro hora</t>
+  </si>
+  <si>
+    <t>esperar mil hora</t>
+  </si>
+  <si>
+    <t>no reembolsar</t>
+  </si>
+  <si>
+    <t>medio ano</t>
+  </si>
+  <si>
+    <t>ni importar</t>
+  </si>
+  <si>
+    <t>responder maquina</t>
+  </si>
+  <si>
+    <t>responder robot</t>
+  </si>
+  <si>
+    <t>no entendiar</t>
+  </si>
+  <si>
+    <t>no entender</t>
+  </si>
+  <si>
+    <t>inodoro</t>
+  </si>
+  <si>
+    <t>estrecho</t>
+  </si>
+  <si>
+    <t>poco asiento</t>
+  </si>
+  <si>
+    <t>mortificar</t>
+  </si>
+  <si>
+    <t>deshacer</t>
+  </si>
+  <si>
+    <t>menos flujo</t>
+  </si>
+  <si>
+    <t>mas semana</t>
+  </si>
+  <si>
+    <t>no solucion</t>
+  </si>
+  <si>
+    <t>ni llamado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no respuesta </t>
+  </si>
+  <si>
+    <t>vacia</t>
+  </si>
+  <si>
+    <t>vacio</t>
+  </si>
+  <si>
+    <t>esperar mas hora</t>
+  </si>
+  <si>
+    <t>no apoyar</t>
+  </si>
+  <si>
+    <t>desorden</t>
+  </si>
+  <si>
+    <t>no escuchar</t>
+  </si>
+  <si>
+    <t>tratar comprar</t>
+  </si>
+  <si>
+    <t>tener buscar otro</t>
+  </si>
+  <si>
+    <t>tener buscar otra</t>
+  </si>
+  <si>
+    <t>fresco</t>
+  </si>
+  <si>
+    <t>desastrozar</t>
+  </si>
+  <si>
+    <t>ano ano pagar</t>
+  </si>
+  <si>
+    <t>mejor decision</t>
+  </si>
+  <si>
+    <t>desgraciadamente</t>
+  </si>
+  <si>
+    <t>cerrar</t>
+  </si>
+  <si>
+    <t>faltar</t>
+  </si>
+  <si>
+    <t>solo falta</t>
+  </si>
+  <si>
+    <t>canse</t>
+  </si>
+  <si>
+    <t>cansa</t>
+  </si>
+  <si>
+    <t>incomodir</t>
+  </si>
+  <si>
+    <t>no llamir</t>
+  </si>
+  <si>
+    <t>no llamir mas</t>
+  </si>
+  <si>
+    <t>nunca contesto</t>
+  </si>
+  <si>
+    <t>desear saber</t>
+  </si>
+  <si>
+    <t>no robot</t>
+  </si>
+  <si>
+    <t>millón ganar</t>
+  </si>
+  <si>
+    <t>millon ganar</t>
+  </si>
+  <si>
+    <t>dar clase</t>
+  </si>
+  <si>
+    <t>desorganizado</t>
+  </si>
+  <si>
+    <t>mucho mejorar</t>
+  </si>
+  <si>
+    <t>querer retirar</t>
+  </si>
+  <si>
+    <t>devolveriar</t>
+  </si>
+  <si>
+    <t>increible robo</t>
+  </si>
+  <si>
+    <t>demore</t>
+  </si>
+  <si>
+    <t>mas minuto</t>
+  </si>
+  <si>
+    <t>nunca tener problema</t>
+  </si>
+  <si>
+    <t>deberio</t>
+  </si>
+  <si>
+    <t>revaluar</t>
+  </si>
+  <si>
+    <t>solo faltar</t>
+  </si>
+  <si>
+    <t>poco espacio</t>
+  </si>
+  <si>
+    <t>obligar</t>
+  </si>
+  <si>
+    <t>responsabilizar</t>
+  </si>
+  <si>
+    <t>esmerado</t>
+  </si>
+  <si>
+    <t>buscar excusa</t>
+  </si>
+  <si>
+    <t>ratero</t>
+  </si>
+  <si>
+    <t>abusivo</t>
+  </si>
+  <si>
+    <t>faltar rapidez</t>
+  </si>
+  <si>
+    <t>falta rapido</t>
+  </si>
+  <si>
+    <t>chiquito</t>
+  </si>
+  <si>
+    <t>finalmente resolver</t>
+  </si>
+  <si>
+    <t>mucho gente</t>
+  </si>
+  <si>
+    <t>sobrepasar</t>
+  </si>
+  <si>
+    <t>pequeno</t>
+  </si>
+  <si>
+    <t>contento</t>
+  </si>
+  <si>
+    <t>contenta</t>
+  </si>
+  <si>
+    <t>no contestir</t>
+  </si>
+  <si>
+    <t>aprovechar</t>
+  </si>
+  <si>
+    <t>aprovecha</t>
+  </si>
+  <si>
+    <t>aprovechir</t>
+  </si>
+  <si>
+    <t>hermoso</t>
+  </si>
+  <si>
+    <t>chico</t>
+  </si>
+  <si>
+    <t>local chico</t>
+  </si>
+  <si>
+    <t>acosar</t>
+  </si>
+  <si>
+    <t>solo querer</t>
+  </si>
+  <si>
+    <t>no tenio</t>
+  </si>
+  <si>
+    <t>apagado</t>
+  </si>
+  <si>
+    <t>costo superar</t>
+  </si>
+  <si>
+    <t>no aplicar</t>
+  </si>
+  <si>
+    <t>maltratar</t>
+  </si>
+  <si>
+    <t>irrespetuoso</t>
+  </si>
+  <si>
+    <t>no pensar</t>
+  </si>
+  <si>
+    <t>no permitir</t>
+  </si>
+  <si>
+    <t>mal rato</t>
+  </si>
+  <si>
+    <t>obstaculo</t>
+  </si>
+  <si>
+    <t>pierdo tiempo</t>
+  </si>
+  <si>
+    <t>pierde tiempo</t>
+  </si>
+  <si>
+    <t>pierda tiempo</t>
+  </si>
+  <si>
+    <t>sobrado cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sobrado </t>
+  </si>
+  <si>
+    <t>mejor aseguradora</t>
+  </si>
+  <si>
+    <t>cheverar</t>
+  </si>
+  <si>
+    <t>nadie contesta</t>
+  </si>
+  <si>
+    <t>tampoco opcion</t>
+  </si>
+  <si>
+    <t>indolente</t>
+  </si>
+  <si>
+    <t>ni caso</t>
+  </si>
+  <si>
+    <t>buen impresión</t>
+  </si>
+  <si>
+    <t>no respetar</t>
+  </si>
+  <si>
+    <t>tardan</t>
+  </si>
+  <si>
+    <t>tarda</t>
+  </si>
+  <si>
+    <t>renuncia</t>
+  </si>
+  <si>
+    <t>renunciar</t>
+  </si>
+  <si>
+    <t>no recomendario</t>
+  </si>
+  <si>
+    <t>desorganizacion</t>
+  </si>
+  <si>
+    <t>insensible</t>
+  </si>
+  <si>
+    <t>sordo</t>
+  </si>
+  <si>
+    <t>nadie dar</t>
+  </si>
+  <si>
+    <t>no siquiera</t>
+  </si>
+  <si>
+    <t>burla</t>
+  </si>
+  <si>
+    <t>proteger salud</t>
+  </si>
+  <si>
+    <t>proteger familia</t>
+  </si>
+  <si>
+    <t>ni mas</t>
+  </si>
+  <si>
+    <t>no mucho agrado</t>
+  </si>
+  <si>
+    <t>amargo</t>
+  </si>
+  <si>
+    <t>mejor compania</t>
+  </si>
+  <si>
+    <t>mejor compañia</t>
+  </si>
+  <si>
+    <t>bloqueo</t>
+  </si>
+  <si>
+    <t>bloquear</t>
+  </si>
+  <si>
+    <t>bloquea</t>
+  </si>
+  <si>
+    <t>bloqueado</t>
+  </si>
+  <si>
+    <t>no poner lugar</t>
+  </si>
+  <si>
+    <t>no poner</t>
+  </si>
+  <si>
+    <t>engorrós</t>
+  </si>
+  <si>
+    <t>engorros</t>
+  </si>
+  <si>
+    <t>demasiado pregunta</t>
+  </si>
+  <si>
+    <t>no enfocar</t>
+  </si>
+  <si>
+    <t>no preocuparar</t>
+  </si>
+  <si>
+    <t>mentira</t>
+  </si>
+  <si>
+    <t>pretexto</t>
+  </si>
+  <si>
+    <t>ni caro ni barato</t>
+  </si>
+  <si>
+    <t>capacitar mejor</t>
+  </si>
+  <si>
+    <t>ayudo</t>
+  </si>
+  <si>
+    <t>empaticos</t>
+  </si>
+  <si>
+    <t>momento dificil</t>
+  </si>
+  <si>
+    <t>no cubrio</t>
+  </si>
+  <si>
+    <t>no tranquilo</t>
+  </si>
+  <si>
+    <t>no tranquilidad</t>
+  </si>
+  <si>
+    <t>no cambiar</t>
+  </si>
+  <si>
+    <t>responsable</t>
+  </si>
+  <si>
+    <t>serio</t>
+  </si>
+  <si>
+    <t>no me dar</t>
+  </si>
+  <si>
+    <t>no facilitar</t>
+  </si>
+  <si>
+    <t>solo habia</t>
+  </si>
+  <si>
+    <t>corrijar</t>
+  </si>
+  <si>
+    <t>confiar</t>
+  </si>
+  <si>
+    <t>inutil</t>
+  </si>
+  <si>
+    <t>delinquir</t>
+  </si>
+  <si>
+    <t>fantasma</t>
+  </si>
+  <si>
+    <t>q clase</t>
+  </si>
+  <si>
+    <t>que clase</t>
+  </si>
+  <si>
+    <t>ke clase</t>
+  </si>
+  <si>
+    <t>k clase</t>
+  </si>
+  <si>
+    <t>vez dar</t>
+  </si>
+  <si>
+    <t>si poder ir</t>
+  </si>
+  <si>
+    <t>orden llegada</t>
+  </si>
+  <si>
+    <t>implementar mejor</t>
+  </si>
+  <si>
+    <t>hacer mejor</t>
+  </si>
+  <si>
+    <t>brindar mejor</t>
+  </si>
+  <si>
+    <t>mas dos hora</t>
+  </si>
+  <si>
+    <t>poco demora</t>
+  </si>
+  <si>
+    <t>mandar lugar otro</t>
+  </si>
+  <si>
+    <t>explicar si tener duda</t>
+  </si>
+  <si>
+    <t>llevar hora</t>
+  </si>
+  <si>
+    <t>claro</t>
+  </si>
+  <si>
+    <t>concreto</t>
+  </si>
+  <si>
+    <t>obsoleto</t>
+  </si>
+  <si>
+    <t>requerir</t>
+  </si>
+  <si>
+    <t>requerir atencion rapido</t>
+  </si>
+  <si>
+    <t>requerir atencion mas rapido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requerir buen </t>
+  </si>
+  <si>
+    <t>requerir bueno</t>
+  </si>
+  <si>
+    <t>requerir mucho</t>
+  </si>
+  <si>
+    <t>requerir buena</t>
+  </si>
+  <si>
+    <t>adecuado</t>
+  </si>
+  <si>
+    <t>eficaz</t>
+  </si>
+  <si>
+    <t>notable</t>
+  </si>
+  <si>
+    <t>bondadoso</t>
+  </si>
+  <si>
+    <t>honesto</t>
+  </si>
+  <si>
+    <t>virtuoso</t>
+  </si>
+  <si>
+    <t>integro</t>
+  </si>
+  <si>
+    <t>generoso</t>
+  </si>
+  <si>
+    <t>optimo</t>
+  </si>
+  <si>
+    <t>conveniente</t>
+  </si>
+  <si>
+    <t>resolutivo</t>
+  </si>
+  <si>
+    <t>no resolutivo</t>
+  </si>
+  <si>
+    <t>adecuado cuidado</t>
+  </si>
+  <si>
+    <t>aclara duda</t>
+  </si>
+  <si>
+    <t>aclaran duda</t>
+  </si>
+  <si>
+    <t>pronta</t>
+  </si>
+  <si>
+    <t>prontar</t>
+  </si>
+  <si>
+    <t>marcar diferencia</t>
+  </si>
+  <si>
+    <t>no capacitado</t>
+  </si>
+  <si>
+    <t>solo atender</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cualquiera inquietud</t>
+  </si>
+  <si>
+    <t>asesoria</t>
+  </si>
+  <si>
+    <t>amigable</t>
+  </si>
+  <si>
+    <t>tener estacionamiento</t>
+  </si>
+  <si>
+    <t>busquen</t>
+  </si>
+  <si>
+    <t>inoperativa</t>
+  </si>
+  <si>
+    <t>ahorren</t>
+  </si>
+  <si>
+    <t>ahorrensir</t>
+  </si>
+  <si>
+    <t>no seriar mejor</t>
+  </si>
+  <si>
+    <t>nadie atendiar</t>
+  </si>
+  <si>
+    <t>amplio gama</t>
+  </si>
+  <si>
+    <t>precio bajo</t>
+  </si>
+  <si>
+    <t>precio mucho</t>
+  </si>
+  <si>
+    <t>robar</t>
+  </si>
+  <si>
+    <t>siempre confiar</t>
+  </si>
+  <si>
+    <t>felicitaciones</t>
+  </si>
+  <si>
+    <t>felicitación</t>
+  </si>
+  <si>
+    <t>felicitacion</t>
+  </si>
+  <si>
+    <t>no atendiar</t>
+  </si>
+  <si>
+    <t>poco concurrencia</t>
+  </si>
+  <si>
+    <t>cancelación</t>
+  </si>
+  <si>
+    <t>imaginable</t>
+  </si>
+  <si>
+    <t>indiferent</t>
+  </si>
+  <si>
+    <t>solo dos persona</t>
+  </si>
+  <si>
+    <t>solo dos</t>
+  </si>
+  <si>
+    <t>solo uno</t>
+  </si>
+  <si>
+    <t>solo persona</t>
+  </si>
+  <si>
+    <t>no apropiado</t>
+  </si>
+  <si>
+    <t>rodeo</t>
+  </si>
+  <si>
+    <t>ni siquiera caramelo</t>
+  </si>
+  <si>
+    <t>poco capacitacion</t>
+  </si>
+  <si>
+    <t>pronta atencion</t>
+  </si>
+  <si>
+    <t>especializado</t>
+  </si>
+  <si>
+    <t>deber venir</t>
+  </si>
+  <si>
+    <t>proactivo</t>
+  </si>
+  <si>
+    <t>solo medio</t>
+  </si>
+  <si>
+    <t>no personal</t>
+  </si>
+  <si>
+    <t>equivocado</t>
+  </si>
+  <si>
+    <t>minimo respeto</t>
+  </si>
+  <si>
+    <t>no seguir</t>
+  </si>
+  <si>
+    <t>respondiar maquina</t>
+  </si>
+  <si>
+    <t>otro level</t>
   </si>
 </sst>
 </file>
@@ -12495,11 +13344,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5993EC-C272-4BB3-8AF9-D99E2F29219A}">
-  <dimension ref="A1:K895"/>
+  <dimension ref="A1:K1137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A830" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A838" sqref="A838"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A939" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12604,10 +13453,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -17507,7 +18356,7 @@
         <v>1027</v>
       </c>
       <c r="B444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -21836,9 +22685,636 @@
         <v>1</v>
       </c>
     </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>186</v>
+      </c>
+      <c r="B838">
+        <v>0</v>
+      </c>
+      <c r="C838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B839">
+        <v>0</v>
+      </c>
+      <c r="C839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B840">
+        <v>0</v>
+      </c>
+      <c r="C840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B841">
+        <v>0</v>
+      </c>
+      <c r="C841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B842">
+        <v>0</v>
+      </c>
+      <c r="C842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B843">
+        <v>0</v>
+      </c>
+      <c r="C843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B844">
+        <v>0</v>
+      </c>
+      <c r="C844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B845">
+        <v>0</v>
+      </c>
+      <c r="C845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B846">
+        <v>0</v>
+      </c>
+      <c r="C846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B847">
+        <v>0</v>
+      </c>
+      <c r="C847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B848">
+        <v>0</v>
+      </c>
+      <c r="C848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B849">
+        <v>0</v>
+      </c>
+      <c r="C849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B850">
+        <v>0</v>
+      </c>
+      <c r="C850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B851">
+        <v>0</v>
+      </c>
+      <c r="C851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B852">
+        <v>0</v>
+      </c>
+      <c r="C852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B853">
+        <v>0</v>
+      </c>
+      <c r="C853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>586</v>
+      </c>
+      <c r="B854">
+        <v>0</v>
+      </c>
+      <c r="C854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B855">
+        <v>0</v>
+      </c>
+      <c r="C855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B856">
+        <v>0</v>
+      </c>
+      <c r="C856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B857">
+        <v>0</v>
+      </c>
+      <c r="C857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B858">
+        <v>0</v>
+      </c>
+      <c r="C858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B859">
+        <v>0</v>
+      </c>
+      <c r="C859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B860">
+        <v>0</v>
+      </c>
+      <c r="C860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B861">
+        <v>0</v>
+      </c>
+      <c r="C861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B862">
+        <v>0</v>
+      </c>
+      <c r="C862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B863">
+        <v>0</v>
+      </c>
+      <c r="C863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B864">
+        <v>0</v>
+      </c>
+      <c r="C864">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B865">
+        <v>0</v>
+      </c>
+      <c r="C865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B866">
+        <v>0</v>
+      </c>
+      <c r="C866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B867">
+        <v>0</v>
+      </c>
+      <c r="C867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B868">
+        <v>0</v>
+      </c>
+      <c r="C868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B869">
+        <v>0</v>
+      </c>
+      <c r="C869">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B870">
+        <v>0</v>
+      </c>
+      <c r="C870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B871">
+        <v>0</v>
+      </c>
+      <c r="C871">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B872">
+        <v>0</v>
+      </c>
+      <c r="C872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B873">
+        <v>0</v>
+      </c>
+      <c r="C873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B874">
+        <v>0</v>
+      </c>
+      <c r="C874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B875">
+        <v>0</v>
+      </c>
+      <c r="C875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B876">
+        <v>0</v>
+      </c>
+      <c r="C876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B877">
+        <v>0</v>
+      </c>
+      <c r="C877">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>37</v>
+      </c>
+      <c r="B878">
+        <v>0</v>
+      </c>
+      <c r="C878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>33</v>
+      </c>
+      <c r="B879">
+        <v>0</v>
+      </c>
+      <c r="C879">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B880">
+        <v>0</v>
+      </c>
+      <c r="C880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B881">
+        <v>0</v>
+      </c>
+      <c r="C881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B882">
+        <v>0</v>
+      </c>
+      <c r="C882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B883">
+        <v>0</v>
+      </c>
+      <c r="C883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>48</v>
+      </c>
+      <c r="B884">
+        <v>0</v>
+      </c>
+      <c r="C884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B885">
+        <v>0</v>
+      </c>
+      <c r="C885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B886">
+        <v>0</v>
+      </c>
+      <c r="C886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B887">
+        <v>0</v>
+      </c>
+      <c r="C887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B888">
+        <v>0</v>
+      </c>
+      <c r="C888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B889">
+        <v>0</v>
+      </c>
+      <c r="C889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B890">
+        <v>0</v>
+      </c>
+      <c r="C890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B891">
+        <v>0</v>
+      </c>
+      <c r="C891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B892">
+        <v>0</v>
+      </c>
+      <c r="C892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B893">
+        <v>0</v>
+      </c>
+      <c r="C893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B894">
+        <v>0</v>
+      </c>
+      <c r="C894">
+        <v>1</v>
+      </c>
+    </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>1412</v>
+        <v>1464</v>
       </c>
       <c r="B895">
         <v>0</v>
@@ -21847,8 +23323,2670 @@
         <v>1</v>
       </c>
     </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B896">
+        <v>0</v>
+      </c>
+      <c r="C896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B897">
+        <v>0</v>
+      </c>
+      <c r="C897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B898">
+        <v>0</v>
+      </c>
+      <c r="C898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B899">
+        <v>0</v>
+      </c>
+      <c r="C899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B900">
+        <v>0</v>
+      </c>
+      <c r="C900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B901">
+        <v>0</v>
+      </c>
+      <c r="C901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B902">
+        <v>0</v>
+      </c>
+      <c r="C902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B903">
+        <v>0</v>
+      </c>
+      <c r="C903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B904">
+        <v>0</v>
+      </c>
+      <c r="C904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B905">
+        <v>0</v>
+      </c>
+      <c r="C905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B906">
+        <v>0</v>
+      </c>
+      <c r="C906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B907">
+        <v>0</v>
+      </c>
+      <c r="C907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B908">
+        <v>0</v>
+      </c>
+      <c r="C908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B909">
+        <v>0</v>
+      </c>
+      <c r="C909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B910">
+        <v>0</v>
+      </c>
+      <c r="C910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B911">
+        <v>1</v>
+      </c>
+      <c r="C911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B912">
+        <v>0</v>
+      </c>
+      <c r="C912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B913">
+        <v>0</v>
+      </c>
+      <c r="C913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>206</v>
+      </c>
+      <c r="B914">
+        <v>0</v>
+      </c>
+      <c r="C914">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B915">
+        <v>1</v>
+      </c>
+      <c r="C915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B916">
+        <v>0</v>
+      </c>
+      <c r="C916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B917">
+        <v>0</v>
+      </c>
+      <c r="C917">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B918">
+        <v>0</v>
+      </c>
+      <c r="C918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B919">
+        <v>0</v>
+      </c>
+      <c r="C919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B920">
+        <v>0</v>
+      </c>
+      <c r="C920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B921">
+        <v>0</v>
+      </c>
+      <c r="C921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B922">
+        <v>0</v>
+      </c>
+      <c r="C922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B923">
+        <v>0</v>
+      </c>
+      <c r="C923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B924">
+        <v>0</v>
+      </c>
+      <c r="C924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B925">
+        <v>0</v>
+      </c>
+      <c r="C925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>543</v>
+      </c>
+      <c r="B926">
+        <v>0</v>
+      </c>
+      <c r="C926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B927">
+        <v>0</v>
+      </c>
+      <c r="C927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B928">
+        <v>0</v>
+      </c>
+      <c r="C928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B929">
+        <v>0</v>
+      </c>
+      <c r="C929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B930">
+        <v>0</v>
+      </c>
+      <c r="C930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B931">
+        <v>0</v>
+      </c>
+      <c r="C931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B932">
+        <v>0</v>
+      </c>
+      <c r="C932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B933">
+        <v>0</v>
+      </c>
+      <c r="C933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B934">
+        <v>0</v>
+      </c>
+      <c r="C934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B935">
+        <v>0</v>
+      </c>
+      <c r="C935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B936">
+        <v>0</v>
+      </c>
+      <c r="C936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B937">
+        <v>0</v>
+      </c>
+      <c r="C937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B938">
+        <v>0</v>
+      </c>
+      <c r="C938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B939">
+        <v>1</v>
+      </c>
+      <c r="C939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B940">
+        <v>0</v>
+      </c>
+      <c r="C940">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B941">
+        <v>0</v>
+      </c>
+      <c r="C941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B942">
+        <v>0</v>
+      </c>
+      <c r="C942">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B943">
+        <v>0</v>
+      </c>
+      <c r="C943">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B944">
+        <v>0</v>
+      </c>
+      <c r="C944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B945">
+        <v>0</v>
+      </c>
+      <c r="C945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B946">
+        <v>1</v>
+      </c>
+      <c r="C946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B947">
+        <v>0</v>
+      </c>
+      <c r="C947">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B948">
+        <v>0</v>
+      </c>
+      <c r="C948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B949">
+        <v>0</v>
+      </c>
+      <c r="C949">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B950">
+        <v>0</v>
+      </c>
+      <c r="C950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B951">
+        <v>0</v>
+      </c>
+      <c r="C951">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B952">
+        <v>0</v>
+      </c>
+      <c r="C952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B953">
+        <v>1</v>
+      </c>
+      <c r="C953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B954">
+        <v>0</v>
+      </c>
+      <c r="C954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B955">
+        <v>0</v>
+      </c>
+      <c r="C955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B956">
+        <v>0</v>
+      </c>
+      <c r="C956">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B957">
+        <v>1</v>
+      </c>
+      <c r="C957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B958">
+        <v>1</v>
+      </c>
+      <c r="C958">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B959">
+        <v>0</v>
+      </c>
+      <c r="C959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B960">
+        <v>0</v>
+      </c>
+      <c r="C960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B961">
+        <v>0</v>
+      </c>
+      <c r="C961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B962">
+        <v>0</v>
+      </c>
+      <c r="C962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B963">
+        <v>1</v>
+      </c>
+      <c r="C963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B964">
+        <v>0</v>
+      </c>
+      <c r="C964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B965">
+        <v>0</v>
+      </c>
+      <c r="C965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B966">
+        <v>0</v>
+      </c>
+      <c r="C966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B967">
+        <v>0</v>
+      </c>
+      <c r="C967">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B968">
+        <v>0</v>
+      </c>
+      <c r="C968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>378</v>
+      </c>
+      <c r="B969">
+        <v>0</v>
+      </c>
+      <c r="C969">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>558</v>
+      </c>
+      <c r="B970">
+        <v>1</v>
+      </c>
+      <c r="C970">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B971">
+        <v>0</v>
+      </c>
+      <c r="C971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B972">
+        <v>0</v>
+      </c>
+      <c r="C972">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B973">
+        <v>0</v>
+      </c>
+      <c r="C973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B974">
+        <v>0</v>
+      </c>
+      <c r="C974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B975">
+        <v>0</v>
+      </c>
+      <c r="C975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B976">
+        <v>0</v>
+      </c>
+      <c r="C976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B977">
+        <v>0</v>
+      </c>
+      <c r="C977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B978">
+        <v>0</v>
+      </c>
+      <c r="C978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B979">
+        <v>0</v>
+      </c>
+      <c r="C979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B980">
+        <v>0</v>
+      </c>
+      <c r="C980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A981" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B981">
+        <v>0</v>
+      </c>
+      <c r="C981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A982" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B982">
+        <v>0</v>
+      </c>
+      <c r="C982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B983">
+        <v>0</v>
+      </c>
+      <c r="C983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B984">
+        <v>0</v>
+      </c>
+      <c r="C984">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B985">
+        <v>1</v>
+      </c>
+      <c r="C985">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A986" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B986">
+        <v>1</v>
+      </c>
+      <c r="C986">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A987" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B987">
+        <v>0</v>
+      </c>
+      <c r="C987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B988">
+        <v>0</v>
+      </c>
+      <c r="C988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A989" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B989">
+        <v>0</v>
+      </c>
+      <c r="C989">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A990" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B990">
+        <v>0</v>
+      </c>
+      <c r="C990">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B991">
+        <v>1</v>
+      </c>
+      <c r="C991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A992" t="s">
+        <v>613</v>
+      </c>
+      <c r="B992">
+        <v>1</v>
+      </c>
+      <c r="C992">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A993" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B993">
+        <v>0</v>
+      </c>
+      <c r="C993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B994">
+        <v>0</v>
+      </c>
+      <c r="C994">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A995" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B995">
+        <v>0</v>
+      </c>
+      <c r="C995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A996" t="s">
+        <v>701</v>
+      </c>
+      <c r="B996">
+        <v>0</v>
+      </c>
+      <c r="C996">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A997" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B997">
+        <v>0</v>
+      </c>
+      <c r="C997">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A998" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B998">
+        <v>0</v>
+      </c>
+      <c r="C998">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A999" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B999">
+        <v>0</v>
+      </c>
+      <c r="C999">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1000" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1000">
+        <v>0</v>
+      </c>
+      <c r="C1000">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1001" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1001">
+        <v>0</v>
+      </c>
+      <c r="C1001">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1002" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B1002">
+        <v>0</v>
+      </c>
+      <c r="C1002">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1003" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1003">
+        <v>0</v>
+      </c>
+      <c r="C1003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1004" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B1004">
+        <v>0</v>
+      </c>
+      <c r="C1004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1005" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1005">
+        <v>0</v>
+      </c>
+      <c r="C1005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1006" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1006">
+        <v>0</v>
+      </c>
+      <c r="C1006">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1007" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B1007">
+        <v>1</v>
+      </c>
+      <c r="C1007">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1008" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1008">
+        <v>1</v>
+      </c>
+      <c r="C1008">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1009" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1009">
+        <v>0</v>
+      </c>
+      <c r="C1009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1010" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B1010">
+        <v>0</v>
+      </c>
+      <c r="C1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1011" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1011">
+        <v>0</v>
+      </c>
+      <c r="C1011">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1012" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B1012">
+        <v>1</v>
+      </c>
+      <c r="C1012">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1013" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1013">
+        <v>1</v>
+      </c>
+      <c r="C1013">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1014" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B1014">
+        <v>0</v>
+      </c>
+      <c r="C1014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B1015">
+        <v>0</v>
+      </c>
+      <c r="C1015">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B1016">
+        <v>0</v>
+      </c>
+      <c r="C1016">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B1017">
+        <v>0</v>
+      </c>
+      <c r="C1017">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1018">
+        <v>0</v>
+      </c>
+      <c r="C1018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1019">
+        <v>0</v>
+      </c>
+      <c r="C1019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B1020">
+        <v>0</v>
+      </c>
+      <c r="C1020">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B1021">
+        <v>0</v>
+      </c>
+      <c r="C1021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B1022">
+        <v>0</v>
+      </c>
+      <c r="C1022">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1023">
+        <v>0</v>
+      </c>
+      <c r="C1023">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1024" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1024">
+        <v>0</v>
+      </c>
+      <c r="C1024">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1025" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1025">
+        <v>0</v>
+      </c>
+      <c r="C1025">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1026" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1026">
+        <v>0</v>
+      </c>
+      <c r="C1026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B1027">
+        <v>0</v>
+      </c>
+      <c r="C1027">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B1028">
+        <v>0</v>
+      </c>
+      <c r="C1028">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1029">
+        <v>1</v>
+      </c>
+      <c r="C1029">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1030" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1030">
+        <v>1</v>
+      </c>
+      <c r="C1030">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1031" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B1031">
+        <v>1</v>
+      </c>
+      <c r="C1031">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1032" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B1032">
+        <v>0</v>
+      </c>
+      <c r="C1032">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1033" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1033">
+        <v>0</v>
+      </c>
+      <c r="C1033">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1034" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B1034">
+        <v>0</v>
+      </c>
+      <c r="C1034">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1035">
+        <v>0</v>
+      </c>
+      <c r="C1035">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1036">
+        <v>0</v>
+      </c>
+      <c r="C1036">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1037">
+        <v>1</v>
+      </c>
+      <c r="C1037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B1038">
+        <v>1</v>
+      </c>
+      <c r="C1038">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1039">
+        <v>0</v>
+      </c>
+      <c r="C1039">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1040">
+        <v>0</v>
+      </c>
+      <c r="C1040">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B1041">
+        <v>0</v>
+      </c>
+      <c r="C1041">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1042">
+        <v>0</v>
+      </c>
+      <c r="C1042">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1043" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1043">
+        <v>0</v>
+      </c>
+      <c r="C1043">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1044" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1044">
+        <v>0</v>
+      </c>
+      <c r="C1044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1045" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1045">
+        <v>0</v>
+      </c>
+      <c r="C1045">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1046">
+        <v>0</v>
+      </c>
+      <c r="C1046">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B1047">
+        <v>0</v>
+      </c>
+      <c r="C1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1048" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1048">
+        <v>0</v>
+      </c>
+      <c r="C1048">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1049" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1049">
+        <v>0</v>
+      </c>
+      <c r="C1049">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1050" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1050">
+        <v>0</v>
+      </c>
+      <c r="C1050">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1051" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1051">
+        <v>0</v>
+      </c>
+      <c r="C1051">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1052" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1052">
+        <v>0</v>
+      </c>
+      <c r="C1052">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1053" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B1053">
+        <v>0</v>
+      </c>
+      <c r="C1053">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1054" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1054">
+        <v>0</v>
+      </c>
+      <c r="C1054">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1055" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B1055">
+        <v>0</v>
+      </c>
+      <c r="C1055">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1056" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1056">
+        <v>0</v>
+      </c>
+      <c r="C1056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B1057">
+        <v>0</v>
+      </c>
+      <c r="C1057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1058" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1058">
+        <v>0</v>
+      </c>
+      <c r="C1058">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1059" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1059">
+        <v>1</v>
+      </c>
+      <c r="C1059">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1060" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1060">
+        <v>0</v>
+      </c>
+      <c r="C1060">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1061" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B1061">
+        <v>1</v>
+      </c>
+      <c r="C1061">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1062" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1062">
+        <v>1</v>
+      </c>
+      <c r="C1062">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1063" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1063">
+        <v>0</v>
+      </c>
+      <c r="C1063">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1064" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1064">
+        <v>0</v>
+      </c>
+      <c r="C1064">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1065" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1065">
+        <v>0</v>
+      </c>
+      <c r="C1065">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1066" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1066">
+        <v>0</v>
+      </c>
+      <c r="C1066">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1067" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B1067">
+        <v>0</v>
+      </c>
+      <c r="C1067">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1068" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1068">
+        <v>0</v>
+      </c>
+      <c r="C1068">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1069" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1069">
+        <v>0</v>
+      </c>
+      <c r="C1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1070" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1070">
+        <v>0</v>
+      </c>
+      <c r="C1070">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1071" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B1071">
+        <v>1</v>
+      </c>
+      <c r="C1071">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1072" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1072">
+        <v>0</v>
+      </c>
+      <c r="C1072">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1073" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B1073">
+        <v>1</v>
+      </c>
+      <c r="C1073">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1074" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1074">
+        <v>1</v>
+      </c>
+      <c r="C1074">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1075" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1075">
+        <v>1</v>
+      </c>
+      <c r="C1075">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1076" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1076">
+        <v>1</v>
+      </c>
+      <c r="C1076">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1077" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1077">
+        <v>1</v>
+      </c>
+      <c r="C1077">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1078" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1078">
+        <v>1</v>
+      </c>
+      <c r="C1078">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1079" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1079">
+        <v>1</v>
+      </c>
+      <c r="C1079">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1080" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1080">
+        <v>0</v>
+      </c>
+      <c r="C1080">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1081" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1081">
+        <v>1</v>
+      </c>
+      <c r="C1081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1082" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1082">
+        <v>0</v>
+      </c>
+      <c r="C1082">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1083" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B1083">
+        <v>1</v>
+      </c>
+      <c r="C1083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1084" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1084">
+        <v>1</v>
+      </c>
+      <c r="C1084">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1085" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1085">
+        <v>1</v>
+      </c>
+      <c r="C1085">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1086" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B1086">
+        <v>1</v>
+      </c>
+      <c r="C1086">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1087" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1087">
+        <v>1</v>
+      </c>
+      <c r="C1087">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1088" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1088">
+        <v>1</v>
+      </c>
+      <c r="C1088">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1089" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B1089">
+        <v>0</v>
+      </c>
+      <c r="C1089">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1090" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1090">
+        <v>0</v>
+      </c>
+      <c r="C1090">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1091" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1091">
+        <v>1</v>
+      </c>
+      <c r="C1091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1092" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1092">
+        <v>1</v>
+      </c>
+      <c r="C1092">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1093" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1093">
+        <v>1</v>
+      </c>
+      <c r="C1093">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1094" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1094">
+        <v>1</v>
+      </c>
+      <c r="C1094">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1095" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B1095">
+        <v>1</v>
+      </c>
+      <c r="C1095">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1096" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B1096">
+        <v>0</v>
+      </c>
+      <c r="C1096">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1097" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1097">
+        <v>0</v>
+      </c>
+      <c r="C1097">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1098" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1098">
+        <v>0</v>
+      </c>
+      <c r="C1098">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1099" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B1099">
+        <v>0</v>
+      </c>
+      <c r="C1099">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1100" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1100">
+        <v>0</v>
+      </c>
+      <c r="C1100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1101" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1101">
+        <v>0</v>
+      </c>
+      <c r="C1101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1102" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1102">
+        <v>1</v>
+      </c>
+      <c r="C1102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1103" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1103">
+        <v>1</v>
+      </c>
+      <c r="C1103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1104" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1104">
+        <v>0</v>
+      </c>
+      <c r="C1104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1105" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B1105">
+        <v>0</v>
+      </c>
+      <c r="C1105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1106" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1106">
+        <v>1</v>
+      </c>
+      <c r="C1106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1107" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1107">
+        <v>1</v>
+      </c>
+      <c r="C1107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1108" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B1108">
+        <v>1</v>
+      </c>
+      <c r="C1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1109">
+        <v>1</v>
+      </c>
+      <c r="C1109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1110" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B1110">
+        <v>1</v>
+      </c>
+      <c r="C1110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1111" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1111">
+        <v>0</v>
+      </c>
+      <c r="C1111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1112" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1112">
+        <v>0</v>
+      </c>
+      <c r="C1112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1113" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B1113">
+        <v>0</v>
+      </c>
+      <c r="C1113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1114" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1114">
+        <v>0</v>
+      </c>
+      <c r="C1114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1115" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B1115">
+        <v>0</v>
+      </c>
+      <c r="C1115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1116" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1116">
+        <v>0</v>
+      </c>
+      <c r="C1116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1117" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1117">
+        <v>0</v>
+      </c>
+      <c r="C1117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1118" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B1118">
+        <v>0</v>
+      </c>
+      <c r="C1118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1119" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B1119">
+        <v>0</v>
+      </c>
+      <c r="C1119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1120" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B1120">
+        <v>0</v>
+      </c>
+      <c r="C1120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1121" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1121">
+        <v>0</v>
+      </c>
+      <c r="C1121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1122" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1122">
+        <v>0</v>
+      </c>
+      <c r="C1122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1123" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1123">
+        <v>0</v>
+      </c>
+      <c r="C1123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1124" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1124">
+        <v>0</v>
+      </c>
+      <c r="C1124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1125" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B1125">
+        <v>0</v>
+      </c>
+      <c r="C1125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1126" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1126">
+        <v>1</v>
+      </c>
+      <c r="C1126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1127" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1127">
+        <v>1</v>
+      </c>
+      <c r="C1127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1128" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1128">
+        <v>0</v>
+      </c>
+      <c r="C1128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1129" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1129">
+        <v>0</v>
+      </c>
+      <c r="C1129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1130" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1130">
+        <v>1</v>
+      </c>
+      <c r="C1130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1131" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1131">
+        <v>0</v>
+      </c>
+      <c r="C1131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1132" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1132">
+        <v>0</v>
+      </c>
+      <c r="C1132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1133" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B1133">
+        <v>0</v>
+      </c>
+      <c r="C1133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1134">
+        <v>0</v>
+      </c>
+      <c r="C1134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1135" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B1135">
+        <v>0</v>
+      </c>
+      <c r="C1135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1136" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B1136">
+        <v>0</v>
+      </c>
+      <c r="C1136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1137" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1137">
+        <v>1</v>
+      </c>
+      <c r="C1137">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K895" xr:uid="{1F5993EC-C272-4BB3-8AF9-D99E2F29219A}"/>
+  <autoFilter ref="A1:K1137" xr:uid="{1F5993EC-C272-4BB3-8AF9-D99E2F29219A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K481">
     <sortCondition ref="A1:A481"/>
   </sortState>
